--- a/KPN_model_summary_wardcategorized_gender_age_allabx.xlsx
+++ b/KPN_model_summary_wardcategorized_gender_age_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6512,6 +6512,692 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B218">
+        <v>2.461187494463191e+223</v>
+      </c>
+      <c r="C218">
+        <v>165.6636630723051</v>
+      </c>
+      <c r="D218">
+        <v>3.104948364373465</v>
+      </c>
+      <c r="E218">
+        <v>0.001903122447941562</v>
+      </c>
+      <c r="F218">
+        <v>3.51387920061645e+82</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B219">
+        <v>0.7758372021000897</v>
+      </c>
+      <c r="C219">
+        <v>0.08194274080823544</v>
+      </c>
+      <c r="D219">
+        <v>-3.097438155141306</v>
+      </c>
+      <c r="E219">
+        <v>0.001952011216434471</v>
+      </c>
+      <c r="F219">
+        <v>0.6605317330931308</v>
+      </c>
+      <c r="G219">
+        <v>0.9108309659119398</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Specimen_typeother</t>
+        </is>
+      </c>
+      <c r="B220">
+        <v>0.9383884184111067</v>
+      </c>
+      <c r="C220">
+        <v>0.1829757620131584</v>
+      </c>
+      <c r="D220">
+        <v>-0.3475396023278004</v>
+      </c>
+      <c r="E220">
+        <v>0.7281859720035502</v>
+      </c>
+      <c r="F220">
+        <v>0.6550045061548964</v>
+      </c>
+      <c r="G220">
+        <v>1.342652832176647</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Specimen_typeRespiratory</t>
+        </is>
+      </c>
+      <c r="B221">
+        <v>0.7177329833379086</v>
+      </c>
+      <c r="C221">
+        <v>0.1905516036516234</v>
+      </c>
+      <c r="D221">
+        <v>-1.740513657443875</v>
+      </c>
+      <c r="E221">
+        <v>0.0817688640453153</v>
+      </c>
+      <c r="F221">
+        <v>0.4932518746611949</v>
+      </c>
+      <c r="G221">
+        <v>1.041672522628698</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Specimen_typeUrine</t>
+        </is>
+      </c>
+      <c r="B222">
+        <v>0.7319371569408294</v>
+      </c>
+      <c r="C222">
+        <v>0.1419668590581908</v>
+      </c>
+      <c r="D222">
+        <v>-2.198123012301541</v>
+      </c>
+      <c r="E222">
+        <v>0.02794034103201891</v>
+      </c>
+      <c r="F222">
+        <v>0.5543843945303731</v>
+      </c>
+      <c r="G222">
+        <v>0.967504006125308</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Specimen_typeWound &amp; soft tissues</t>
+        </is>
+      </c>
+      <c r="B223">
+        <v>0.642474533745828</v>
+      </c>
+      <c r="C223">
+        <v>0.1870082084025599</v>
+      </c>
+      <c r="D223">
+        <v>-2.365821815902198</v>
+      </c>
+      <c r="E223">
+        <v>0.01799010046614492</v>
+      </c>
+      <c r="F223">
+        <v>0.4444253285848163</v>
+      </c>
+      <c r="G223">
+        <v>0.9255597801176517</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>HospitalCHBH</t>
+        </is>
+      </c>
+      <c r="B224">
+        <v>0.1268359677011731</v>
+      </c>
+      <c r="C224">
+        <v>0.4124061155060416</v>
+      </c>
+      <c r="D224">
+        <v>-5.00686227147491</v>
+      </c>
+      <c r="E224">
+        <v>5.532448383349169e-07</v>
+      </c>
+      <c r="F224">
+        <v>0.05532798351972371</v>
+      </c>
+      <c r="G224">
+        <v>0.2799858889684548</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO</t>
+        </is>
+      </c>
+      <c r="B225">
+        <v>1.010065958159261</v>
+      </c>
+      <c r="C225">
+        <v>0.4735704897173304</v>
+      </c>
+      <c r="D225">
+        <v>0.02114919330180446</v>
+      </c>
+      <c r="E225">
+        <v>0.983126643076504</v>
+      </c>
+      <c r="F225">
+        <v>0.3896606230327634</v>
+      </c>
+      <c r="G225">
+        <v>2.557317801074604</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>HospitalRabta</t>
+        </is>
+      </c>
+      <c r="B226">
+        <v>0.1764228855845602</v>
+      </c>
+      <c r="C226">
+        <v>0.3519441530864111</v>
+      </c>
+      <c r="D226">
+        <v>-4.929394029525668</v>
+      </c>
+      <c r="E226">
+        <v>8.248506235133874e-07</v>
+      </c>
+      <c r="F226">
+        <v>0.08635695109379382</v>
+      </c>
+      <c r="G226">
+        <v>0.345408436332071</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B227">
+        <v>0.1711157349043254</v>
+      </c>
+      <c r="C227">
+        <v>0.3749884231020588</v>
+      </c>
+      <c r="D227">
+        <v>-4.707919045882528</v>
+      </c>
+      <c r="E227">
+        <v>2.502584441670069e-06</v>
+      </c>
+      <c r="F227">
+        <v>0.080131958378693</v>
+      </c>
+      <c r="G227">
+        <v>0.3505049092046891</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B228">
+        <v>0.2665860152107615</v>
+      </c>
+      <c r="C228">
+        <v>0.3258540357421799</v>
+      </c>
+      <c r="D228">
+        <v>-4.057210234256819</v>
+      </c>
+      <c r="E228">
+        <v>4.966237475586161e-05</v>
+      </c>
+      <c r="F228">
+        <v>0.1368763152400849</v>
+      </c>
+      <c r="G228">
+        <v>0.4948864600823658</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>GenderF</t>
+        </is>
+      </c>
+      <c r="B229">
+        <v>0.6962028365555392</v>
+      </c>
+      <c r="C229">
+        <v>0.09254723088361201</v>
+      </c>
+      <c r="D229">
+        <v>-3.912750557911895</v>
+      </c>
+      <c r="E229">
+        <v>9.125077931006256e-05</v>
+      </c>
+      <c r="F229">
+        <v>0.5804938785028012</v>
+      </c>
+      <c r="G229">
+        <v>0.8344276861652442</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Age_cat0–28 d</t>
+        </is>
+      </c>
+      <c r="B230">
+        <v>1.249911182725254</v>
+      </c>
+      <c r="C230">
+        <v>0.2341104844998627</v>
+      </c>
+      <c r="D230">
+        <v>0.9528513660826736</v>
+      </c>
+      <c r="E230">
+        <v>0.34066538434713</v>
+      </c>
+      <c r="F230">
+        <v>0.7887208235837938</v>
+      </c>
+      <c r="G230">
+        <v>1.976530295857539</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Age_cat29–365 d</t>
+        </is>
+      </c>
+      <c r="B231">
+        <v>1.107987400399107</v>
+      </c>
+      <c r="C231">
+        <v>0.2150207399903162</v>
+      </c>
+      <c r="D231">
+        <v>0.4769084916371542</v>
+      </c>
+      <c r="E231">
+        <v>0.633427284932332</v>
+      </c>
+      <c r="F231">
+        <v>0.7254881178838359</v>
+      </c>
+      <c r="G231">
+        <v>1.686606241698885</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Age_cat1–5 y</t>
+        </is>
+      </c>
+      <c r="B232">
+        <v>1.043253870101134</v>
+      </c>
+      <c r="C232">
+        <v>0.2386728456311455</v>
+      </c>
+      <c r="D232">
+        <v>0.17741670624103</v>
+      </c>
+      <c r="E232">
+        <v>0.8591810857899268</v>
+      </c>
+      <c r="F232">
+        <v>0.6510545340283339</v>
+      </c>
+      <c r="G232">
+        <v>1.661402476121889</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Age_cat6–&lt;30 y</t>
+        </is>
+      </c>
+      <c r="B233">
+        <v>1.241531518511784</v>
+      </c>
+      <c r="C233">
+        <v>0.1788303386410371</v>
+      </c>
+      <c r="D233">
+        <v>1.209781934832335</v>
+      </c>
+      <c r="E233">
+        <v>0.2263625799612052</v>
+      </c>
+      <c r="F233">
+        <v>0.8734142274708139</v>
+      </c>
+      <c r="G233">
+        <v>1.761519814473723</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Age_cat52–&lt;67 y</t>
+        </is>
+      </c>
+      <c r="B234">
+        <v>0.9469174056971396</v>
+      </c>
+      <c r="C234">
+        <v>0.1398685176293984</v>
+      </c>
+      <c r="D234">
+        <v>-0.3899619965735838</v>
+      </c>
+      <c r="E234">
+        <v>0.6965646489739572</v>
+      </c>
+      <c r="F234">
+        <v>0.7198876801532644</v>
+      </c>
+      <c r="G234">
+        <v>1.245945123038501</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Age_cat≥67 y</t>
+        </is>
+      </c>
+      <c r="B235">
+        <v>1.213288963694586</v>
+      </c>
+      <c r="C235">
+        <v>0.1389655615789326</v>
+      </c>
+      <c r="D235">
+        <v>1.391242705974334</v>
+      </c>
+      <c r="E235">
+        <v>0.1641518410995224</v>
+      </c>
+      <c r="F235">
+        <v>0.924503349349912</v>
+      </c>
+      <c r="G235">
+        <v>1.594396457623224</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B236">
+        <v>6.098618702788396</v>
+      </c>
+      <c r="C236">
+        <v>0.5628658481090885</v>
+      </c>
+      <c r="D236">
+        <v>3.212243751234152</v>
+      </c>
+      <c r="E236">
+        <v>0.001317025806803913</v>
+      </c>
+      <c r="F236">
+        <v>2.008071010609528</v>
+      </c>
+      <c r="G236">
+        <v>18.39264582683544</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>HospitalRabta:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B238">
+        <v>3.060845345524598</v>
+      </c>
+      <c r="C238">
+        <v>0.4309699558917862</v>
+      </c>
+      <c r="D238">
+        <v>2.595752022214544</v>
+      </c>
+      <c r="E238">
+        <v>0.009438415636612673</v>
+      </c>
+      <c r="F238">
+        <v>1.331425517903692</v>
+      </c>
+      <c r="G238">
+        <v>7.244033488465726</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B239">
+        <v>5.469218054929973</v>
+      </c>
+      <c r="C239">
+        <v>0.414385111245283</v>
+      </c>
+      <c r="D239">
+        <v>4.10037814713583</v>
+      </c>
+      <c r="E239">
+        <v>4.124755805203718e-05</v>
+      </c>
+      <c r="F239">
+        <v>2.466092441054754</v>
+      </c>
+      <c r="G239">
+        <v>12.57662936238957</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>HospitalRabta:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B241">
+        <v>3.425241855227194</v>
+      </c>
+      <c r="C241">
+        <v>0.3634724295428138</v>
+      </c>
+      <c r="D241">
+        <v>3.387250266642146</v>
+      </c>
+      <c r="E241">
+        <v>0.000705969566382035</v>
+      </c>
+      <c r="F241">
+        <v>1.708151962623899</v>
+      </c>
+      <c r="G241">
+        <v>7.144948620994987</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KPN_model_summary_wardcategorized_gender_age_allabx.xlsx
+++ b/KPN_model_summary_wardcategorized_gender_age_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7198,6 +7198,600 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B242">
+        <v>2.12022614487124e-86</v>
+      </c>
+      <c r="C242">
+        <v>340.3071951568477</v>
+      </c>
+      <c r="D242">
+        <v>-0.5796844675924698</v>
+      </c>
+      <c r="E242">
+        <v>0.562127419664201</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>1.148545122303125e+204</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B243">
+        <v>1.103265964947725</v>
+      </c>
+      <c r="C243">
+        <v>0.1682942745768018</v>
+      </c>
+      <c r="D243">
+        <v>0.5839464244642122</v>
+      </c>
+      <c r="E243">
+        <v>0.5592563577839413</v>
+      </c>
+      <c r="F243">
+        <v>0.7932263952926472</v>
+      </c>
+      <c r="G243">
+        <v>1.537202823979058</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Specimen_typeother</t>
+        </is>
+      </c>
+      <c r="B244">
+        <v>0.4827938278208103</v>
+      </c>
+      <c r="C244">
+        <v>0.3118814447319059</v>
+      </c>
+      <c r="D244">
+        <v>-2.334751189186488</v>
+      </c>
+      <c r="E244">
+        <v>0.01955642242869515</v>
+      </c>
+      <c r="F244">
+        <v>0.2579391837868429</v>
+      </c>
+      <c r="G244">
+        <v>0.8795302289253522</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Specimen_typeRespiratory</t>
+        </is>
+      </c>
+      <c r="B245">
+        <v>0.4087218536795503</v>
+      </c>
+      <c r="C245">
+        <v>0.2857244209323956</v>
+      </c>
+      <c r="D245">
+        <v>-3.131410383898778</v>
+      </c>
+      <c r="E245">
+        <v>0.001739688717862533</v>
+      </c>
+      <c r="F245">
+        <v>0.2310474285241748</v>
+      </c>
+      <c r="G245">
+        <v>0.7100213466474574</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Specimen_typeUrine</t>
+        </is>
+      </c>
+      <c r="B246">
+        <v>0.4064758692059096</v>
+      </c>
+      <c r="C246">
+        <v>0.2199860458947055</v>
+      </c>
+      <c r="D246">
+        <v>-4.092217351523558</v>
+      </c>
+      <c r="E246">
+        <v>4.272678815771846e-05</v>
+      </c>
+      <c r="F246">
+        <v>0.2639391232547947</v>
+      </c>
+      <c r="G246">
+        <v>0.6259422126029462</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Specimen_typeWound &amp; soft tissues</t>
+        </is>
+      </c>
+      <c r="B247">
+        <v>0.5707325276830005</v>
+      </c>
+      <c r="C247">
+        <v>0.2975141226203328</v>
+      </c>
+      <c r="D247">
+        <v>-1.885068856593717</v>
+      </c>
+      <c r="E247">
+        <v>0.05942054206724073</v>
+      </c>
+      <c r="F247">
+        <v>0.3157064033360731</v>
+      </c>
+      <c r="G247">
+        <v>1.016127416490391</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>HospitalCHBH</t>
+        </is>
+      </c>
+      <c r="B248">
+        <v>0.1490956686064201</v>
+      </c>
+      <c r="C248">
+        <v>0.4836803244361255</v>
+      </c>
+      <c r="D248">
+        <v>-3.934762304236533</v>
+      </c>
+      <c r="E248">
+        <v>8.327907350307602e-05</v>
+      </c>
+      <c r="F248">
+        <v>0.05674518583748864</v>
+      </c>
+      <c r="G248">
+        <v>0.3795443056860292</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO</t>
+        </is>
+      </c>
+      <c r="B249">
+        <v>0.5490196302122109</v>
+      </c>
+      <c r="C249">
+        <v>0.6222527291519727</v>
+      </c>
+      <c r="D249">
+        <v>-0.9636294928310511</v>
+      </c>
+      <c r="E249">
+        <v>0.3352317149440498</v>
+      </c>
+      <c r="F249">
+        <v>0.1426669015145889</v>
+      </c>
+      <c r="G249">
+        <v>1.725717958582835</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B250">
+        <v>0.1475795473771434</v>
+      </c>
+      <c r="C250">
+        <v>0.4294022124291951</v>
+      </c>
+      <c r="D250">
+        <v>-4.455934061211244</v>
+      </c>
+      <c r="E250">
+        <v>8.352870499896662e-06</v>
+      </c>
+      <c r="F250">
+        <v>0.06217671209713808</v>
+      </c>
+      <c r="G250">
+        <v>0.3362371932977084</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B251">
+        <v>0.208163910641488</v>
+      </c>
+      <c r="C251">
+        <v>0.3469777575472706</v>
+      </c>
+      <c r="D251">
+        <v>-4.523141450849089</v>
+      </c>
+      <c r="E251">
+        <v>6.092849177486386e-06</v>
+      </c>
+      <c r="F251">
+        <v>0.103335142314097</v>
+      </c>
+      <c r="G251">
+        <v>0.4049700865509483</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GenderF</t>
+        </is>
+      </c>
+      <c r="B252">
+        <v>1.009540986485855</v>
+      </c>
+      <c r="C252">
+        <v>0.159033548788717</v>
+      </c>
+      <c r="D252">
+        <v>0.05970915443534012</v>
+      </c>
+      <c r="E252">
+        <v>0.9523872805609095</v>
+      </c>
+      <c r="F252">
+        <v>0.7392142031453177</v>
+      </c>
+      <c r="G252">
+        <v>1.379606495951268</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Age_cat0–28 d</t>
+        </is>
+      </c>
+      <c r="B253">
+        <v>0.7452352981706942</v>
+      </c>
+      <c r="C253">
+        <v>0.3539073716208163</v>
+      </c>
+      <c r="D253">
+        <v>-0.8308820261385873</v>
+      </c>
+      <c r="E253">
+        <v>0.4060402783715337</v>
+      </c>
+      <c r="F253">
+        <v>0.3690120214198593</v>
+      </c>
+      <c r="G253">
+        <v>1.481826769133568</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Age_cat29–365 d</t>
+        </is>
+      </c>
+      <c r="B254">
+        <v>0.8251223013987901</v>
+      </c>
+      <c r="C254">
+        <v>0.3368775103312124</v>
+      </c>
+      <c r="D254">
+        <v>-0.5706040136837662</v>
+      </c>
+      <c r="E254">
+        <v>0.5682680971805545</v>
+      </c>
+      <c r="F254">
+        <v>0.4232036081975295</v>
+      </c>
+      <c r="G254">
+        <v>1.589184735589086</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Age_cat1–5 y</t>
+        </is>
+      </c>
+      <c r="B255">
+        <v>1.022969034968856</v>
+      </c>
+      <c r="C255">
+        <v>0.3560010526225862</v>
+      </c>
+      <c r="D255">
+        <v>0.06378974864382075</v>
+      </c>
+      <c r="E255">
+        <v>0.9491376410321533</v>
+      </c>
+      <c r="F255">
+        <v>0.5043603389987948</v>
+      </c>
+      <c r="G255">
+        <v>2.043447546845866</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Age_cat6–&lt;30 y</t>
+        </is>
+      </c>
+      <c r="B256">
+        <v>1.241191349676181</v>
+      </c>
+      <c r="C256">
+        <v>0.2792237254772341</v>
+      </c>
+      <c r="D256">
+        <v>0.7738299597407585</v>
+      </c>
+      <c r="E256">
+        <v>0.4390313529777314</v>
+      </c>
+      <c r="F256">
+        <v>0.7172569937819174</v>
+      </c>
+      <c r="G256">
+        <v>2.146928216985859</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Age_cat52–&lt;67 y</t>
+        </is>
+      </c>
+      <c r="B257">
+        <v>0.6915584825649634</v>
+      </c>
+      <c r="C257">
+        <v>0.2644920459833628</v>
+      </c>
+      <c r="D257">
+        <v>-1.394399429280131</v>
+      </c>
+      <c r="E257">
+        <v>0.1631970203610393</v>
+      </c>
+      <c r="F257">
+        <v>0.4101922704414107</v>
+      </c>
+      <c r="G257">
+        <v>1.159307971801076</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Age_cat≥67 y</t>
+        </is>
+      </c>
+      <c r="B258">
+        <v>0.8674602363730076</v>
+      </c>
+      <c r="C258">
+        <v>0.2646451827060015</v>
+      </c>
+      <c r="D258">
+        <v>-0.5372688208106362</v>
+      </c>
+      <c r="E258">
+        <v>0.5910819392114427</v>
+      </c>
+      <c r="F258">
+        <v>0.5153305044320108</v>
+      </c>
+      <c r="G258">
+        <v>1.457066074456465</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B259">
+        <v>2.773613282477063</v>
+      </c>
+      <c r="C259">
+        <v>0.7842069013599707</v>
+      </c>
+      <c r="D259">
+        <v>1.300869582379733</v>
+      </c>
+      <c r="E259">
+        <v>0.1933030993888284</v>
+      </c>
+      <c r="F259">
+        <v>0.5130549673319463</v>
+      </c>
+      <c r="G259">
+        <v>11.92216803660624</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B261">
+        <v>3.919699389786237</v>
+      </c>
+      <c r="C261">
+        <v>0.4623546430404585</v>
+      </c>
+      <c r="D261">
+        <v>2.954474417299782</v>
+      </c>
+      <c r="E261">
+        <v>0.003132021197257005</v>
+      </c>
+      <c r="F261">
+        <v>1.603166091905406</v>
+      </c>
+      <c r="G261">
+        <v>9.863250856107802</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
